--- a/medicine/Enfance/Au_bonheur_des_mômes/Au_bonheur_des_mômes.xlsx
+++ b/medicine/Enfance/Au_bonheur_des_mômes/Au_bonheur_des_mômes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Au_bonheur_des_m%C3%B4mes</t>
+          <t>Au_bonheur_des_mômes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Au Bonheur des Mômes, Festival International de Spectacles Jeunes Publics, est un festival destiné aux enfants, créé en 1992, se déroulant la dernière semaine d'août au Grand-Bornand, en Haute-Savoie. Il fait suite au Festival en Culottes en courtes qui s'est déroulé en 1985 et 1986. Il est dirigé depuis de nombreuses années par Alain Benzoni dit "Benzo".
 Le festival rassemble de nombreux spectacles, ateliers et animations dédiés au jeune public. Par ailleurs, en partenariat avec la Direction de la Prévention et du Développement Social du Conseil départemental de la Haute-Savoie, le festival aborde chaque année une thématique différente afin de sensibiliser le public aux questions sociales et environnementales.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Au_bonheur_des_m%C3%B4mes</t>
+          <t>Au_bonheur_des_mômes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -520,7 +534,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Au_bonheur_des_m%C3%B4mes</t>
+          <t>Au_bonheur_des_mômes</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -540,10 +554,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Les sites du festival
-Les différents lieux du festival : les Saltimbanques au sommet, le Village des Mômes, l'Espace Grand-Bo, le Village Nomade, Tout là-haut, là-haut dans la Montagne (accès par télécabine depuis le Pont de Suize). A noter que la cérémonie d'ouverture du festival a lieu au Chinaillon, village sur les hauteurs du Grand-Bornand. Lors de cette journée d'ouverture, les festivaliers peuvent se rendre librement et gratuitement au Chinaillon en empruntant les bus mis à disposition par la commune du Grand-Bornand.
-Chiffres
-La fréquentation est passée de 2 000 depuis sa création à plus de 90 000 festivaliers en 2017[1].
+          <t>Les sites du festival</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les différents lieux du festival : les Saltimbanques au sommet, le Village des Mômes, l'Espace Grand-Bo, le Village Nomade, Tout là-haut, là-haut dans la Montagne (accès par télécabine depuis le Pont de Suize). A noter que la cérémonie d'ouverture du festival a lieu au Chinaillon, village sur les hauteurs du Grand-Bornand. Lors de cette journée d'ouverture, les festivaliers peuvent se rendre librement et gratuitement au Chinaillon en empruntant les bus mis à disposition par la commune du Grand-Bornand.
 </t>
         </is>
       </c>
@@ -554,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Au_bonheur_des_m%C3%B4mes</t>
+          <t>Au_bonheur_des_mômes</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -569,10 +586,49 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Chiffres</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La fréquentation est passée de 2 000 depuis sa création à plus de 90 000 festivaliers en 2017.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Au_bonheur_des_mômes</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Au_bonheur_des_m%C3%B4mes</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Les prix du festival</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Lors de ce festival, différents prix sont décernés :
 Prix du Jury "Coups de Pouce aux Jeunes Compagnies"
@@ -581,31 +637,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Au_bonheur_des_m%C3%B4mes</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Au_bonheur_des_mômes</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Au_bonheur_des_m%C3%B4mes</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Programmation et éditions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>2022 - Au Bonheur des Mômes fête ses 30 ans
 2017 - Au Bonheur des Mômes fête ses 26 ans.
